--- a/tables/Weapons.xlsx
+++ b/tables/Weapons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\Codes\Python\ShooterStatAnalyser\ShooterGameStatAnalyser\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10696270-B3A9-43A3-98F4-AFAB89BD74DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6242770-EEAD-430B-8E2F-C73A4FF5E686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>武器ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,14 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15,20,25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,15,25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FireInterval</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,6 +100,26 @@
   </si>
   <si>
     <t>30,20,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,8,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,20,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,25,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,15,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -463,13 +475,13 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
@@ -489,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -503,7 +515,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -540,16 +552,36 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>8</v>
       </c>
       <c r="F5" s="1">
-        <v>0.1</v>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/tables/Weapons.xlsx
+++ b/tables/Weapons.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\Codes\Python\ShooterStatAnalyser\ShooterGameStatAnalyser\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6242770-EEAD-430B-8E2F-C73A4FF5E686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA7C995-CFFB-446D-9F24-B77999B0153E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guns" sheetId="1" r:id="rId1"/>
+    <sheet name="Guns1" sheetId="2" r:id="rId2"/>
+    <sheet name="Guns2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>武器ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +122,18 @@
   </si>
   <si>
     <t>20,15,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射速/RPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射击间隔/ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -589,4 +603,285 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F2AD7E-5832-4608-A4AD-ECC840966B49}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="16.9140625" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6886D12-659C-4337-8672-DDCC8DE292F2}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="15.4140625" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tables/Weapons.xlsx
+++ b/tables/Weapons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\Codes\Python\ShooterStatAnalyser\ShooterGameStatAnalyser\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA7C995-CFFB-446D-9F24-B77999B0153E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B5612A-0696-4F2E-A484-6FF24564F23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guns" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
   <si>
     <t>武器ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,14 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10,25,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,25,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S1897</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,26 +93,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30,20,16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15,8,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7,20,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MP5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10,25,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20,15,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,6 +114,30 @@
   </si>
   <si>
     <t>射击间隔/ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,25,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C3" sqref="C3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -489,13 +493,13 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
@@ -515,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -526,10 +530,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -546,7 +550,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -563,13 +567,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1">
         <v>8</v>
@@ -583,19 +587,39 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -607,10 +631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F2AD7E-5832-4608-A4AD-ECC840966B49}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C3" sqref="C3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -631,13 +655,13 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -657,27 +681,29 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
+        <f>Guns!A3:A7</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>700</v>
+        <f>ROUNDDOWN(60/Guns!F3, 0)</f>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -688,7 +714,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -697,7 +723,8 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>600</v>
+        <f>ROUNDDOWN(60/Guns!F4, 0)</f>
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -705,19 +732,20 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1">
         <v>8</v>
       </c>
       <c r="F5" s="1">
-        <v>120</v>
+        <f>ROUNDDOWN(60/Guns!F5, 0)</f>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -725,19 +753,41 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>900</v>
+        <f>ROUNDDOWN(60/Guns!F6, 0)</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <f>ROUNDDOWN(60/Guns!F7, 0)</f>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -748,10 +798,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6886D12-659C-4337-8672-DDCC8DE292F2}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C3" sqref="C3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -771,13 +821,13 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -797,7 +847,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -808,15 +858,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
+        <f>Guns!F3*1000</f>
         <v>80</v>
       </c>
     </row>
@@ -828,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -837,6 +888,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
+        <f>Guns!F4*1000</f>
         <v>110</v>
       </c>
     </row>
@@ -845,18 +897,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1">
         <v>8</v>
       </c>
       <c r="F5" s="1">
+        <f>Guns!F5*1000</f>
         <v>250</v>
       </c>
     </row>
@@ -865,19 +918,41 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1">
+        <f>Guns!F6*1000</f>
         <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <f>Guns!F7*1000</f>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/tables/Weapons.xlsx
+++ b/tables/Weapons.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\Codes\Python\ShooterStatAnalyser\ShooterGameStatAnalyser\tables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4F5A8D-E484-4798-82D2-DF9918B931E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="10480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Guns" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,25 @@
     <sheet name="Guns2" sheetId="3" r:id="rId3"/>
     <sheet name="GunsDelta" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="35">
   <si>
     <t>武器ID</t>
   </si>
@@ -40,134 +47,467 @@
     <t>每次射击子弹数量</t>
   </si>
   <si>
+    <t>射击间隔/S</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>DamageDisSeg</t>
+  </si>
+  <si>
+    <t>DamageSeg</t>
+  </si>
+  <si>
+    <t>BulletsPerShot</t>
+  </si>
+  <si>
+    <t>FireInterval</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>10,25</t>
+  </si>
+  <si>
+    <t>30,25,20</t>
+  </si>
+  <si>
+    <t>AK47</t>
+  </si>
+  <si>
+    <t>15,25</t>
+  </si>
+  <si>
+    <t>45,35,30</t>
+  </si>
+  <si>
+    <t>S1897</t>
+  </si>
+  <si>
+    <t>7,20</t>
+  </si>
+  <si>
+    <t>15,8,5</t>
+  </si>
+  <si>
+    <t>MP5</t>
+  </si>
+  <si>
+    <t>20,15,10</t>
+  </si>
+  <si>
+    <t>Baret</t>
+  </si>
+  <si>
+    <t>100,90</t>
+  </si>
+  <si>
+    <t>射速/RPM</t>
+  </si>
+  <si>
+    <t>FireRate</t>
+  </si>
+  <si>
     <t>射击间隔/ms</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>DamageDisSeg</t>
-  </si>
-  <si>
-    <t>DamageSeg</t>
-  </si>
-  <si>
-    <t>BulletsPerShot</t>
-  </si>
-  <si>
-    <t>FireInterval</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>10,25</t>
-  </si>
-  <si>
-    <t>30,25,20</t>
-  </si>
-  <si>
-    <t>AK47</t>
-  </si>
-  <si>
-    <t>15,25</t>
-  </si>
-  <si>
-    <t>45,35,30</t>
-  </si>
-  <si>
-    <t>S1897</t>
-  </si>
-  <si>
-    <t>7,20</t>
-  </si>
-  <si>
-    <t>15,8,5</t>
-  </si>
-  <si>
-    <t>MP5</t>
-  </si>
-  <si>
-    <t>20,15,10</t>
-  </si>
-  <si>
-    <t>Baret</t>
-  </si>
-  <si>
-    <t>100,90</t>
-  </si>
-  <si>
-    <t>射速/RPM</t>
-  </si>
-  <si>
-    <t>FireRate</t>
-  </si>
-  <si>
-    <t>射击间隔/S</t>
-  </si>
-  <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>射击间隔/s</t>
   </si>
   <si>
     <t>BaseDamage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.8,0.7</t>
+  </si>
+  <si>
+    <t>1,0.6,0.5</t>
+  </si>
+  <si>
+    <t>1,0.7,0.6</t>
   </si>
   <si>
     <t>1,0.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,0.8,0.7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,0.6,0.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,0.7,0.6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -176,15 +516,250 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -194,27 +769,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -499,30 +1118,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.72727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.72727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.8181818181818" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.2727272727273" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.2727272727273" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.2727272727273" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,10 +1159,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -562,7 +1182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" ht="18.75" customHeight="1" spans="1:6">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -582,7 +1202,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" ht="18.75" customHeight="1" spans="1:6">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -602,7 +1222,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" ht="18.75" customHeight="1" spans="1:6">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -622,7 +1242,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" ht="18.75" customHeight="1" spans="1:6">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -642,7 +1262,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" ht="18.75" customHeight="1" spans="1:6">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -663,31 +1283,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5454545454545" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5454545454545" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5454545454545" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.2727272727273" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.8181818181818" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.2727272727273" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="18.75" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +1329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="18.75" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -727,7 +1349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" ht="18.75" customHeight="1" spans="1:6">
       <c r="A3" s="3">
         <f>Guns!A3:A7</f>
         <v>0</v>
@@ -745,11 +1367,11 @@
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <f>ROUNDDOWN(60/Guns!F3, 0)</f>
+        <f>ROUNDDOWN(60/Guns!F3,0)</f>
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" ht="18.75" customHeight="1" spans="1:6">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -766,11 +1388,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <f>ROUNDDOWN(60/Guns!F4, 0)</f>
+        <f>ROUNDDOWN(60/Guns!F4,0)</f>
         <v>545</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" ht="18.75" customHeight="1" spans="1:6">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -787,11 +1409,11 @@
         <v>8</v>
       </c>
       <c r="F5" s="3">
-        <f>ROUNDDOWN(60/Guns!F5, 0)</f>
+        <f>ROUNDDOWN(60/Guns!F5,0)</f>
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" ht="18.75" customHeight="1" spans="1:6">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -808,11 +1430,11 @@
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <f>ROUNDDOWN(60/Guns!F6, 0)</f>
+        <f>ROUNDDOWN(60/Guns!F6,0)</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" ht="18.75" customHeight="1" spans="1:6">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -829,18 +1451,18 @@
         <v>1</v>
       </c>
       <c r="F7" s="3">
-        <f>ROUNDDOWN(60/Guns!F7, 0)</f>
+        <f>ROUNDDOWN(60/Guns!F7,0)</f>
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -850,17 +1472,17 @@
       <selection activeCell="C7" sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5454545454545" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5454545454545" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5454545454545" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5454545454545" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.4545454545455" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7272727272727" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="20.25" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,10 +1499,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,7 +1522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" ht="18.75" customHeight="1" spans="1:6">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -921,7 +1543,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" ht="18.75" customHeight="1" spans="1:6">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -942,7 +1564,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" ht="18.75" customHeight="1" spans="1:6">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -963,7 +1585,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" ht="18.75" customHeight="1" spans="1:6">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -984,7 +1606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" ht="18.75" customHeight="1" spans="1:6">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1006,28 +1628,29 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5F5F0F-ECA9-4F20-A183-C37C23B1E122}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="12.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="11.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="11.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,10 +1670,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1064,7 +1687,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -1073,7 +1696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" ht="14.5" spans="1:7">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1092,12 +1715,11 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
-        <f>Guns!F3*1000</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="G3" s="5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" ht="14.5" spans="1:7">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1116,12 +1738,11 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
-        <f>Guns!F4*1000</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="G4" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5" ht="14.5" spans="1:7">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1140,12 +1761,11 @@
       <c r="F5" s="3">
         <v>8</v>
       </c>
-      <c r="G5" s="3">
-        <f>Guns!F5*1000</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="G5" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" ht="14.5" spans="1:7">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1164,12 +1784,11 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
-        <f>Guns!F6*1000</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="G6" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" ht="14.5" spans="1:7">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1180,7 +1799,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E7" s="4">
         <v>100</v>
@@ -1189,12 +1808,11 @@
         <v>1</v>
       </c>
       <c r="G7" s="3">
-        <f>Guns!F7*1000</f>
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>